--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976245.8202509265</v>
+        <v>973768.6675818335</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>58.02993390906929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>20.75054951475581</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406544</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.4561610442</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693902</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.31186923471346</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.2708408728595</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.7268717888053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>340.3338839129383</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.923658794391</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550706</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>253.2887669659689</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299937</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>340.5675156626568</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842595</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9486112871237</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337162</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,13 +1822,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>60.90275599948596</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.83266606353107</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>141.1329474887994</v>
+        <v>102.1557845699826</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365904</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>24.83266606353009</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.15987277746899e-13</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>134.3391137331263</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699828</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179617</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699844</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323825</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>35.88641949135564</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695489</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983369</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.026286001646</v>
       </c>
       <c r="T40" t="n">
-        <v>136.7593194687121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763394</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>285.5970594671147</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2379.02402606898</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2379.02402606898</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>2379.02402606898</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>2379.02402606898</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4395,31 +4395,31 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>790.7764984014356</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1750.731523233373</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>1581.795340305466</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>1431.678700893131</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>1283.765607310737</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.98160625599</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270334</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>2040.148693270334</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>1750.731523233373</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X4" t="n">
-        <v>1750.731523233373</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y4" t="n">
-        <v>1750.731523233373</v>
+        <v>349.6600800990973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002933</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>926.2736972002933</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>540.485444602049</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445191</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>332.8675597612649</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,19 +4729,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621287</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251681</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271508</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445191</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796416</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.990616856005</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1550.724918249254</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.93666565101</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796416</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796416</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.2446860521933</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398575</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
         <v>66.5121164321834</v>
@@ -4993,19 +4993,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.994809125281</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1003.310320919394</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>713.893150882433</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>713.893150882433</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.893150882433</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.316839436114</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.354322495702</v>
+        <v>1166.296315748936</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>808.0306171421853</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>422.2423645439412</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078501</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604051</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260481</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990366</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2341.456171411925</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.316839436114</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469187</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831295</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104393</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1337.658805224962</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1878.967112576029</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2646055703352</v>
+        <v>385.5135230760931</v>
       </c>
       <c r="C13" t="n">
-        <v>523.3284226424283</v>
+        <v>216.5773401481862</v>
       </c>
       <c r="D13" t="n">
-        <v>373.2117832300926</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.5002252888911</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.00427954144</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298592</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>873.913070400575</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.913070400575</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>106.3138404733492</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>698.3321947254767</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>2128.167016284654</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.83764708305</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397777</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.761433397777</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1562.344263360817</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>580.899304487669</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>580.899304487669</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>432.986210905276</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073658</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222457</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>922.1728707402527</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,16 +5911,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279802</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133955</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614385</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597622</v>
+        <v>197.0043242297727</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597622</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746421</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038344</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121675</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121644</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400733</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121664</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998305</v>
       </c>
       <c r="E37" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138431</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.502065570313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656158</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377089</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595855</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>240.4465442417441</v>
+        <v>73.66059580999757</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.758549118712</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>29.1635850158122</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395286</v>
       </c>
       <c r="E13" t="n">
-        <v>20.48535135944543</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729133</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537621</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>164.8068993895512</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826928</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.482525529412953</v>
+        <v>46.45968844822971</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>142.4141550350977</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>32.90770736550149</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294845</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038592</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822794</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822917</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.2980548978885</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823227</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>80.64613085857621</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187295</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5874149221294829</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893616.4462668308</v>
+        <v>893616.4462668303</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972364.885440822</v>
+        <v>972364.8854408221</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977725.0791031923</v>
+        <v>977725.0791031924</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253559</v>
-      </c>
-      <c r="D2" t="n">
-        <v>451572.9734253558</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.839779504</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.8744009172</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295035</v>
@@ -26332,16 +26332,16 @@
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="L2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295034</v>
@@ -26350,10 +26350,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121054</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185163</v>
+        <v>143114.139218515</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605462</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115349</v>
+        <v>37377.32855115319</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462855</v>
+        <v>9848.023364462853</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543546</v>
+        <v>9940.611700543548</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26439,13 +26439,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768887</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768859</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-894046.9929976303</v>
+        <v>-894046.9929976307</v>
       </c>
       <c r="C6" t="n">
-        <v>51066.11215873683</v>
+        <v>51066.11215873688</v>
       </c>
       <c r="D6" t="n">
-        <v>254504.8537708419</v>
+        <v>254504.8537708422</v>
       </c>
       <c r="E6" t="n">
-        <v>166324.9550343779</v>
+        <v>166114.9907905343</v>
       </c>
       <c r="F6" t="n">
-        <v>164869.7870813981</v>
+        <v>164823.882085831</v>
       </c>
       <c r="G6" t="n">
-        <v>321693.7194482482</v>
+        <v>321658.9815228127</v>
       </c>
       <c r="H6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.2177583918</v>
       </c>
       <c r="I6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.2177583917</v>
       </c>
       <c r="J6" t="n">
-        <v>165255.7778738449</v>
+        <v>165221.0399484092</v>
       </c>
       <c r="K6" t="n">
-        <v>283750.8629777729</v>
+        <v>283716.125052337</v>
       </c>
       <c r="L6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.2177583917</v>
       </c>
       <c r="M6" t="n">
-        <v>295483.6271326739</v>
+        <v>295448.8892072385</v>
       </c>
       <c r="N6" t="n">
-        <v>289078.5491253385</v>
+        <v>289043.8111999024</v>
       </c>
       <c r="O6" t="n">
-        <v>329837.6577066027</v>
+        <v>329802.9197811669</v>
       </c>
       <c r="P6" t="n">
-        <v>332860.9556838274</v>
+        <v>332826.2177583916</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086471</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012581</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063558</v>
+        <v>149.9868724063546</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063558</v>
+        <v>149.9868724063546</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063558</v>
+        <v>149.9868724063546</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>269.7223245610656</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>328.4904192026572</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128291</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>112.9648869787312</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161733</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>348.564176506998</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177370968</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.85778156328945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.54216182877309</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.317309923022</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352117</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>32.92307123964395</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.156704775624651e-13</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.07215969487276e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>583.7591506492943</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>315.2626263027258</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936829</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>329.9818210510365</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795942</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>441.6251167272759</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>172.6663818582814</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701622</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>196.0074136367062</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998993</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899091</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
